--- a/Linux_Hadoop/Hadoop/project/의약품처방정보 통계.xlsx
+++ b/Linux_Hadoop/Hadoop/project/의약품처방정보 통계.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="28035" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="28035" windowHeight="12375" tabRatio="695" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="데이터 개요" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="498">
   <si>
     <t>141906CIM</t>
   </si>
@@ -42,24 +42,12 @@
     <t>487703ACH</t>
   </si>
   <si>
-    <t>615802ATB</t>
-  </si>
-  <si>
-    <t>454802BIJ</t>
-  </si>
-  <si>
     <t>452602BIJ</t>
   </si>
   <si>
     <t>458900CLQ</t>
   </si>
   <si>
-    <t>182602BIJ</t>
-  </si>
-  <si>
-    <t>455801BIJ</t>
-  </si>
-  <si>
     <t>504306BIJ</t>
   </si>
   <si>
@@ -72,9 +60,6 @@
     <t>512102BIJ</t>
   </si>
   <si>
-    <t>348405BIJ</t>
-  </si>
-  <si>
     <t>483901BIJ</t>
   </si>
   <si>
@@ -85,9 +70,6 @@
   </si>
   <si>
     <t>512101BIJ</t>
-  </si>
-  <si>
-    <t>485606ATB</t>
   </si>
   <si>
     <t>GNL_NM_CD</t>
@@ -3326,309 +3308,847 @@
     <t>512001ACH</t>
   </si>
   <si>
+    <t>117901ATB</t>
+  </si>
+  <si>
+    <t>180901ASY</t>
+  </si>
+  <si>
+    <t>611705ATB</t>
+  </si>
+  <si>
+    <t>183604ATB</t>
+  </si>
+  <si>
+    <t>104601ATB</t>
+  </si>
+  <si>
+    <t>219906ACR</t>
+  </si>
+  <si>
+    <t>378700ATB</t>
+  </si>
+  <si>
+    <t>530079COS</t>
+  </si>
+  <si>
+    <t>510600ATB</t>
+  </si>
+  <si>
+    <t>242101ATB</t>
+  </si>
+  <si>
+    <t>183602ATB</t>
+  </si>
+  <si>
+    <t>472500ATB</t>
+  </si>
+  <si>
+    <t>480101ACH</t>
+  </si>
+  <si>
+    <t>402507ATR</t>
+  </si>
+  <si>
+    <t>489502ATB</t>
+  </si>
+  <si>
+    <t>483701ATB</t>
+  </si>
+  <si>
+    <t>402506ATR</t>
+  </si>
+  <si>
+    <t>연도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT STND_Y, GNL_NM_CD, COUNT(GNL_NM_CD) AS COUNT</t>
+  </si>
+  <si>
+    <t>FROM MEDICINE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP BY STND_Y, GNL_NM_CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVING STND_Y = 2013</t>
+  </si>
+  <si>
+    <t>ORDER BY COUNT DESC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIMIT 10;</t>
+  </si>
+  <si>
+    <t>HAVING STND_Y = 2014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVING STND_Y = 2015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVING STND_Y = 2016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVING STND_Y = 2017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>망막 정맥 폐쇄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>520801COS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결막염, 각막염 치료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>438901ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>면역글로불린제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌하수체기능검사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세포독성 항암제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>454803BIJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항바이러스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부신피질호르몬제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>348412BIJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌하수체호르몬제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>452601BIJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>면역조절 항암제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성호르몬제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트랩토키나제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소염효소제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>염산슈도에페드린</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비염 및 콧물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>록소프로펜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해열, 진통, 소염제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 궤양치료제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레바미피드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>421001ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모사프리드시트르산염수화물</t>
+  </si>
+  <si>
+    <t>소화기관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>131801ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클로르페니라민말레산염</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항히스타민제&amp;항알러지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dl메틸에페드린염산염</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">진해거담제 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101804ACH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아세틸시스테인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">진해거담제 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>125201ACH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세파클러</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>균 감염증 치료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>193302ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아드레날 코르티코스테로이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>염증 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>133301ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시메티딘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화성궤양용제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라니티딘 복합제</t>
+  </si>
+  <si>
+    <t>아세클로페낙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아세트아미노펜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레보세티리진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105203ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알마게이트</t>
+  </si>
+  <si>
+    <t>제산제 </t>
+  </si>
+  <si>
+    <t>183102ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레보드로프로피진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">진해거담제 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101404ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>152301ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에페리손염산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골격근이완제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>183501ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레보설피리드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>217001ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레드니론</t>
+  </si>
+  <si>
+    <t>부신호르몬제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>153101ACH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에르도스테인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진해거담제</t>
+  </si>
+  <si>
+    <t>클로르페니라민, 페닐프린</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈니플루메이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>142301ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소염제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> 덱시부프로펜디ㆍ씨</t>
+  </si>
+  <si>
+    <t>106301ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>염산암브록솔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진해거담제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>179001ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이토프리드염산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>358500ASY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아목시실린, 클라불란산칼륨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항생제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>240301ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>염산티로프라미드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위장경련완화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해독제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아연 아세테이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>665600ATB</t>
-  </si>
-  <si>
-    <t>117901ATB</t>
-  </si>
-  <si>
-    <t>180901ASY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시트르산칼슘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비소프로롤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라미부딘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항바이러스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>109001ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아나스트로졸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유방암치료제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타목시펜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호르몬성 항암제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라코사미드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>간질발작치료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>234502ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>182201ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레트로졸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레보시록신염</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑상선호르몬제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알파칼시돌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼슘흡수 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>염산프로프라놀롤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈압강하제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캡토프릴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알도스테론 분비감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>234501ATB</t>
-  </si>
-  <si>
-    <t>611705ATB</t>
-  </si>
-  <si>
-    <t>234502ATB</t>
-  </si>
-  <si>
-    <t>182201ATB</t>
-  </si>
-  <si>
-    <t>183604ATB</t>
-  </si>
-  <si>
-    <t>104601ATB</t>
-  </si>
-  <si>
-    <t>219906ACR</t>
-  </si>
-  <si>
-    <t>378700ATB</t>
-  </si>
-  <si>
-    <t>530079COS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>히알루론산나트륨</t>
+  </si>
+  <si>
+    <t>인공눈물, 점안액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>206331ASS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥스칼바제핀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에버로리무스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>485601ATB</t>
-  </si>
-  <si>
-    <t>510600ATB</t>
-  </si>
-  <si>
-    <t>242101ATB</t>
-  </si>
-  <si>
-    <t>183602ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>면역억제제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>니코티닉산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고지혈증 치료제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토레미펜시트르산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>466000ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>니트렌디핀, 에날라프릴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고혈압 치료제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>224906ATR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항파킨슨제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로피니롤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>488501ATR</t>
-  </si>
-  <si>
-    <t>472500ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레비티라세탐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌전증치료제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아톨바스타틴, 암로디핀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심혈관계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>488505ATB</t>
-  </si>
-  <si>
-    <t>480101ACH</t>
-  </si>
-  <si>
-    <t>402507ATR</t>
-  </si>
-  <si>
-    <t>489502ATB</t>
-  </si>
-  <si>
-    <t>483701ATB</t>
-  </si>
-  <si>
-    <t>402506ATR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리엔틴염산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라미페졸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비보롤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베타 차단제(혈압강하)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테트라베나진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라미페졸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>496901ATB</t>
-  </si>
-  <si>
-    <t>연도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>약품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT STND_Y, GNL_NM_CD, COUNT(GNL_NM_CD) AS COUNT</t>
-  </si>
-  <si>
-    <t>FROM MEDICINE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP BY STND_Y, GNL_NM_CD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVING STND_Y = 2013</t>
-  </si>
-  <si>
-    <t>ORDER BY COUNT DESC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIMIT 10;</t>
-  </si>
-  <si>
-    <t>HAVING STND_Y = 2014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVING STND_Y = 2015</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVING STND_Y = 2016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVING STND_Y = 2017</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>덱사메타손</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>망막 정맥 폐쇄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주요 성분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페리프록스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비염 등 호흡기관 치료제</t>
+  </si>
+  <si>
+    <t>해열제, 소염제</t>
+  </si>
+  <si>
+    <t>소화제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항알러지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소염제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항히스타민제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비타민D 보충</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항종양제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호르몬제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>454802BIJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만성 c형 간염 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세포증식 억제 항암제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>182602BIJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자궁근종</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>455801BIJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관절염 및 근골격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조혈제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌하수체호르몬제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당뇨병용제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>348405BIJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골다공증치료제</t>
+  </si>
+  <si>
+    <t>알러지 및 면역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈당 조절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>485606ATB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>면역조절 항암제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알부민 보조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세포독성 항암제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>439701BIJ</t>
+  </si>
+  <si>
+    <t>439001ATB</t>
+  </si>
+  <si>
+    <t>652502ATB</t>
+  </si>
+  <si>
+    <t>617501ACH</t>
+  </si>
+  <si>
+    <t>529600ASS</t>
+  </si>
+  <si>
+    <t>624102ATB</t>
+  </si>
+  <si>
+    <t>628101ACH</t>
+  </si>
+  <si>
+    <t>617502ACH</t>
+  </si>
+  <si>
+    <t>645800ATB</t>
+  </si>
+  <si>
+    <t>624101ATB</t>
+  </si>
+  <si>
+    <t>626901ATB</t>
+  </si>
+  <si>
+    <t>431632BIJ</t>
+  </si>
+  <si>
+    <t>634401ACH</t>
+  </si>
+  <si>
+    <t>644401ATB</t>
+  </si>
+  <si>
+    <t>562602ACH</t>
+  </si>
+  <si>
+    <t>562601ACH</t>
+  </si>
+  <si>
+    <t>623003ATB</t>
+  </si>
+  <si>
+    <t>631101ATB</t>
+  </si>
+  <si>
+    <t>493301ATB</t>
+  </si>
+  <si>
+    <t>627401ACS</t>
+  </si>
+  <si>
+    <t>624801ATB</t>
+  </si>
+  <si>
+    <t>564702ATB</t>
+  </si>
+  <si>
+    <t>655201ACH</t>
+  </si>
+  <si>
+    <t>655203ACH</t>
   </si>
   <si>
     <t>520801COS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나타마이신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결막염, 각막염 치료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>438901ATB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>면역글로불린제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>면역글로불린</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코르티코렐린트리플루오로아세테이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뇌하수체기능검사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테모졸로미드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세포독성 항암제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>454803BIJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>항바이러스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>페그인트론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부신피질호르몬제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소마트로핀</t>
-  </si>
-  <si>
-    <t>348412BIJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노디트로핀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뇌하수체호르몬제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>452601BIJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>페그인터페론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>면역조절 항암제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레보노르게스트렐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여성호르몬제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스트랩토키나제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소염효소제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>염산슈도에페드린</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비염 및 콧물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>록소프로펜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해열, 진통, 소염제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 궤양치료제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레바미피드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>421001ATB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모사프리드시트르산염수화물</t>
-  </si>
-  <si>
-    <t>소화기관</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>131801ATB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클로르페니라민말레산염</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>항히스타민제&amp;항알러지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl메틸에페드린염산염</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">진해거담제 </t>
+  </si>
+  <si>
+    <t>623002ATB</t>
+  </si>
+  <si>
+    <t>509101ACH</t>
+  </si>
+  <si>
+    <t>493304ATB</t>
+  </si>
+  <si>
+    <t>412701ATB</t>
+  </si>
+  <si>
+    <t>AMT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>615802ATB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3639,7 +4159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3816,8 +4336,46 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF434955"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF545454"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF424242"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="한컴바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3854,12 +4412,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -4074,7 +4626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4186,6 +4738,15 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4414,10 +4975,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4488,7 +5067,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'약품 단가'!$D$2:$D$11</c:f>
+              <c:f>'약품 단가'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4535,8 +5114,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46509056"/>
-        <c:axId val="104422720"/>
+        <c:axId val="130185728"/>
+        <c:axId val="49668672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4549,7 +5128,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'약품 단가'!$E$2:$E$11</c:f>
+              <c:f>'약품 단가'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4598,11 +5177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93936640"/>
-        <c:axId val="47208064"/>
+        <c:axId val="130183680"/>
+        <c:axId val="49669248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46509056"/>
+        <c:axId val="130185728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4631,7 +5210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104422720"/>
+        <c:crossAx val="49668672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4639,7 +5218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104422720"/>
+        <c:axId val="49668672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4669,12 +5248,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46509056"/>
+        <c:crossAx val="130185728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47208064"/>
+        <c:axId val="49669248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4684,12 +5263,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93936640"/>
+        <c:crossAx val="130183680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="93936640"/>
+        <c:axId val="130183680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4698,7 +5277,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47208064"/>
+        <c:crossAx val="49669248"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4721,13 +5301,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -5053,105 +5633,105 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="34" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17.25" customHeight="1">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
-      </c>
-      <c r="K2" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="L2" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="V2" s="101"/>
-      <c r="W2" s="102" t="s">
-        <v>163</v>
+        <v>241</v>
+      </c>
+      <c r="K2" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="V2" s="104"/>
+      <c r="W2" s="105" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="34.5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="98"/>
+        <v>85</v>
+      </c>
+      <c r="K3" s="101"/>
       <c r="L3" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="N3" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="106"/>
+        <v>159</v>
+      </c>
+      <c r="N3" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="109"/>
       <c r="U3" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="W3" s="103"/>
+        <v>162</v>
+      </c>
+      <c r="W3" s="106"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K4" s="15">
         <v>1</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="N4" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="72"/>
+        <v>163</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="75"/>
       <c r="U4" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="V4" s="18">
         <v>2009</v>
@@ -5160,158 +5740,158 @@
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="43">
+        <v>81</v>
+      </c>
+      <c r="K5" s="46">
         <v>2</v>
       </c>
-      <c r="L5" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="M5" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="N5" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="V5" s="55">
+      <c r="L5" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="V5" s="58">
         <v>1</v>
       </c>
-      <c r="W5" s="57"/>
+      <c r="W5" s="60"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="58"/>
+        <v>84</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="61"/>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="43">
+        <v>80</v>
+      </c>
+      <c r="K7" s="46">
         <v>3</v>
       </c>
-      <c r="L7" s="45" t="s">
-        <v>177</v>
+      <c r="L7" s="48" t="s">
+        <v>171</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="N7" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="V7" s="55">
+        <v>172</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="V7" s="58">
         <v>1</v>
       </c>
-      <c r="W7" s="57"/>
+      <c r="W7" s="60"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="46"/>
+        <v>82</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="49"/>
       <c r="M8" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="58"/>
+        <v>173</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="61"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K9" s="15">
         <v>4</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="N9" s="107" t="s">
-        <v>182</v>
-      </c>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="109"/>
+        <v>175</v>
+      </c>
+      <c r="N9" s="110" t="s">
+        <v>176</v>
+      </c>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="112"/>
       <c r="U9" s="17" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="V9" s="18">
         <v>1</v>
@@ -5320,886 +5900,886 @@
     </row>
     <row r="10" spans="1:23" ht="16.5" customHeight="1">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="43">
+        <v>86</v>
+      </c>
+      <c r="K10" s="46">
         <v>5</v>
       </c>
-      <c r="L10" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="V10" s="55">
+      <c r="L10" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="V10" s="58">
         <v>1</v>
       </c>
-      <c r="W10" s="85" t="s">
-        <v>185</v>
+      <c r="W10" s="88" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="44"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="110" t="s">
-        <v>184</v>
-      </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="87"/>
+        <v>80</v>
+      </c>
+      <c r="K11" s="47"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="90"/>
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="43">
+        <v>87</v>
+      </c>
+      <c r="K12" s="46">
         <v>6</v>
       </c>
-      <c r="L12" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="M12" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="N12" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="V12" s="55">
+      <c r="L12" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="M12" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="V12" s="58">
         <v>11</v>
       </c>
-      <c r="W12" s="85" t="s">
-        <v>185</v>
+      <c r="W12" s="88" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="94" t="s">
-        <v>189</v>
-      </c>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="86"/>
+        <v>83</v>
+      </c>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="89"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
+        <v>80</v>
+      </c>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="65"/>
       <c r="N14" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="T14" s="25"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="86"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="89"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="60"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
+        <v>88</v>
+      </c>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
       <c r="N15" s="7">
         <v>1</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P15" s="4">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="T15" s="25"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="86"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="89"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
+        <v>89</v>
+      </c>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="65"/>
       <c r="N16" s="7">
         <v>2</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="P16" s="4">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="T16" s="25"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="86"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="89"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
         <v>80</v>
       </c>
-      <c r="B17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="60"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="65"/>
       <c r="N17" s="7">
         <v>3</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P17" s="4">
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="T17" s="25"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="86"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="89"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
+        <v>90</v>
+      </c>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="65"/>
       <c r="N18" s="7">
         <v>4</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="P18" s="4">
         <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="T18" s="25"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="86"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="89"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="60"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="62"/>
+        <v>76</v>
+      </c>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="65"/>
       <c r="N19" s="7">
         <v>5</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P19" s="4">
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="T19" s="25"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="86"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="89"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="62"/>
+        <v>77</v>
+      </c>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="65"/>
       <c r="N20" s="7">
         <v>6</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="P20" s="4">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="T20" s="25"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="86"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="89"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="60"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="62"/>
+        <v>78</v>
+      </c>
+      <c r="K21" s="63"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="65"/>
       <c r="N21" s="7">
         <v>7</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="P21" s="4">
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="T21" s="25"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="86"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="89"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="62"/>
+        <v>79</v>
+      </c>
+      <c r="K22" s="63"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="65"/>
       <c r="N22" s="7">
         <v>8</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P22" s="4">
         <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="T22" s="25"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="86"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="89"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="K23" s="44"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="48"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="51"/>
       <c r="N23" s="7">
         <v>9</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P23" s="4">
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="23"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="87"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="90"/>
     </row>
     <row r="24" spans="1:23" ht="16.5" customHeight="1">
-      <c r="K24" s="43">
+      <c r="K24" s="46">
         <v>7</v>
       </c>
-      <c r="L24" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="M24" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="N24" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="V24" s="55">
+      <c r="L24" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="N24" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="V24" s="58">
         <v>26</v>
       </c>
-      <c r="W24" s="85" t="s">
-        <v>185</v>
+      <c r="W24" s="88" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="27" customHeight="1">
-      <c r="K25" s="60"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="86"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="89"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E26">
         <v>30052795</v>
       </c>
-      <c r="K26" s="60"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="62"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="65"/>
       <c r="N26" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="T26" s="25"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="86"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="89"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E27">
         <v>30276952</v>
       </c>
-      <c r="K27" s="60"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="62"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="65"/>
       <c r="N27" s="7">
         <v>11</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P27" s="4">
         <v>42</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="T27" s="25"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="86"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="89"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E28">
         <v>29470176</v>
       </c>
-      <c r="K28" s="60"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="62"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="65"/>
       <c r="N28" s="7">
         <v>26</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P28" s="4">
         <v>43</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="T28" s="25"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="86"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="89"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E29">
         <v>38573917</v>
       </c>
-      <c r="K29" s="60"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="62"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="65"/>
       <c r="N29" s="7">
         <v>27</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P29" s="4">
         <v>44</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="T29" s="25"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="86"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="89"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E30">
         <v>39203451</v>
       </c>
-      <c r="K30" s="60"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="62"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="65"/>
       <c r="N30" s="7">
         <v>28</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P30" s="4">
         <v>45</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="T30" s="25"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="86"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="89"/>
     </row>
     <row r="31" spans="1:23">
       <c r="D31" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E31">
         <f>SUM(E26:E30)</f>
         <v>167577291</v>
       </c>
-      <c r="K31" s="60"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="62"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="65"/>
       <c r="N31" s="7">
         <v>29</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P31" s="4">
         <v>46</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="T31" s="25"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="86"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="89"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="K32" s="60"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="62"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="65"/>
       <c r="N32" s="7">
         <v>30</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P32" s="4">
         <v>47</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="T32" s="25"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="86"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="89"/>
     </row>
     <row r="33" spans="11:23">
-      <c r="K33" s="60"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="62"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="65"/>
       <c r="N33" s="7">
         <v>31</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P33" s="4">
         <v>48</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="T33" s="25"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="86"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="89"/>
     </row>
     <row r="34" spans="11:23" ht="24">
-      <c r="K34" s="60"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="62"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="65"/>
       <c r="N34" s="7">
         <v>36</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="P34" s="4">
         <v>49</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T34" s="25"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="69"/>
-      <c r="W34" s="86"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="89"/>
     </row>
     <row r="35" spans="11:23">
-      <c r="K35" s="44"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="48"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="51"/>
       <c r="N35" s="7">
         <v>41</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
       <c r="T35" s="23"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="87"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="90"/>
     </row>
     <row r="36" spans="11:23" ht="33" customHeight="1">
-      <c r="K36" s="43">
+      <c r="K36" s="46">
         <v>8</v>
       </c>
-      <c r="L36" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="M36" s="47" t="s">
+      <c r="L36" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="M36" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="N36" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="V36" s="58">
+        <v>20081124</v>
+      </c>
+      <c r="W36" s="60"/>
+    </row>
+    <row r="37" spans="11:23" ht="16.5" customHeight="1">
+      <c r="K37" s="47"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="94" t="s">
+        <v>189</v>
+      </c>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="96"/>
+      <c r="U37" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="V37" s="59"/>
+      <c r="W37" s="61"/>
+    </row>
+    <row r="38" spans="11:23" ht="33">
+      <c r="K38" s="46">
+        <v>9</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M38" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="V38" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="W38" s="88" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="11:23" ht="16.5" customHeight="1">
+      <c r="K39" s="63"/>
+      <c r="L39" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="N36" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="O36" s="89"/>
-      <c r="P36" s="89"/>
-      <c r="Q36" s="89"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="90"/>
-      <c r="U36" s="21" t="s">
+      <c r="M39" s="65"/>
+      <c r="N39" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="O39" s="67"/>
+      <c r="P39" s="67"/>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="67"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="83"/>
+      <c r="V39" s="86"/>
+      <c r="W39" s="89"/>
+    </row>
+    <row r="40" spans="11:23" ht="16.5" customHeight="1">
+      <c r="K40" s="63"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="V36" s="55">
-        <v>20081124</v>
-      </c>
-      <c r="W36" s="57"/>
-    </row>
-    <row r="37" spans="11:23" ht="16.5" customHeight="1">
-      <c r="K37" s="44"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="91" t="s">
-        <v>195</v>
-      </c>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="92"/>
-      <c r="S37" s="92"/>
-      <c r="T37" s="93"/>
-      <c r="U37" s="24" t="s">
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="83"/>
+      <c r="V40" s="86"/>
+      <c r="W40" s="89"/>
+    </row>
+    <row r="41" spans="11:23" ht="16.5" customHeight="1">
+      <c r="K41" s="47"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="V37" s="56"/>
-      <c r="W37" s="58"/>
-    </row>
-    <row r="38" spans="11:23" ht="33">
-      <c r="K38" s="43">
-        <v>9</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="M38" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" s="49" t="s">
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="84"/>
+      <c r="V41" s="87"/>
+      <c r="W41" s="90"/>
+    </row>
+    <row r="42" spans="11:23" ht="33" customHeight="1">
+      <c r="K42" s="46">
+        <v>10</v>
+      </c>
+      <c r="L42" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="79" t="s">
+      <c r="M42" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="N42" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="V42" s="58">
+        <v>2.5</v>
+      </c>
+      <c r="W42" s="60"/>
+    </row>
+    <row r="43" spans="11:23" ht="16.5" customHeight="1">
+      <c r="K43" s="63"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="O43" s="67"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="67"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="65"/>
+      <c r="V43" s="72"/>
+      <c r="W43" s="62"/>
+    </row>
+    <row r="44" spans="11:23">
+      <c r="K44" s="63"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O44" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="V38" s="82" t="s">
+      <c r="P44" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="W38" s="85" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="11:23" ht="16.5" customHeight="1">
-      <c r="K39" s="60"/>
-      <c r="L39" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="M39" s="62"/>
-      <c r="N39" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="65"/>
-      <c r="U39" s="80"/>
-      <c r="V39" s="83"/>
-      <c r="W39" s="86"/>
-    </row>
-    <row r="40" spans="11:23" ht="16.5" customHeight="1">
-      <c r="K40" s="60"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="65"/>
-      <c r="U40" s="80"/>
-      <c r="V40" s="83"/>
-      <c r="W40" s="86"/>
-    </row>
-    <row r="41" spans="11:23" ht="16.5" customHeight="1">
-      <c r="K41" s="44"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="81"/>
-      <c r="V41" s="84"/>
-      <c r="W41" s="87"/>
-    </row>
-    <row r="42" spans="11:23" ht="33" customHeight="1">
-      <c r="K42" s="43">
-        <v>10</v>
-      </c>
-      <c r="L42" s="47" t="s">
+      <c r="Q44" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="M42" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="N42" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="V42" s="55">
-        <v>2.5</v>
-      </c>
-      <c r="W42" s="57"/>
-    </row>
-    <row r="43" spans="11:23" ht="16.5" customHeight="1">
-      <c r="K43" s="60"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="O43" s="64"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="64"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="65"/>
-      <c r="U43" s="62"/>
-      <c r="V43" s="69"/>
-      <c r="W43" s="59"/>
-    </row>
-    <row r="44" spans="11:23">
-      <c r="K44" s="60"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="O44" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="P44" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q44" s="30" t="s">
-        <v>212</v>
-      </c>
       <c r="T44" s="25"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="69"/>
-      <c r="W44" s="59"/>
+      <c r="U44" s="65"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="62"/>
     </row>
     <row r="45" spans="11:23">
-      <c r="K45" s="60"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
       <c r="N45" s="7">
         <v>664101610</v>
       </c>
@@ -6213,69 +6793,69 @@
         <v>5</v>
       </c>
       <c r="T45" s="25"/>
-      <c r="U45" s="62"/>
-      <c r="V45" s="69"/>
-      <c r="W45" s="59"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="72"/>
+      <c r="W45" s="62"/>
     </row>
     <row r="46" spans="11:23" ht="16.5" customHeight="1">
-      <c r="K46" s="60"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="O46" s="64"/>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="64"/>
-      <c r="R46" s="64"/>
-      <c r="S46" s="64"/>
-      <c r="T46" s="65"/>
-      <c r="U46" s="62"/>
-      <c r="V46" s="69"/>
-      <c r="W46" s="59"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="O46" s="67"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="67"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="65"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="62"/>
     </row>
     <row r="47" spans="11:23" ht="16.5" customHeight="1">
-      <c r="K47" s="60"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
-      <c r="T47" s="75"/>
-      <c r="U47" s="62"/>
-      <c r="V47" s="69"/>
-      <c r="W47" s="59"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="O47" s="77"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="77"/>
+      <c r="R47" s="77"/>
+      <c r="S47" s="77"/>
+      <c r="T47" s="78"/>
+      <c r="U47" s="65"/>
+      <c r="V47" s="72"/>
+      <c r="W47" s="62"/>
     </row>
     <row r="48" spans="11:23">
-      <c r="K48" s="60"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
       <c r="N48" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O48" s="29" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P48" s="29" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q48" s="30" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="T48" s="25"/>
-      <c r="U48" s="62"/>
-      <c r="V48" s="69"/>
-      <c r="W48" s="59"/>
+      <c r="U48" s="65"/>
+      <c r="V48" s="72"/>
+      <c r="W48" s="62"/>
     </row>
     <row r="49" spans="11:23">
-      <c r="K49" s="60"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
       <c r="N49" s="7">
         <v>650002370</v>
       </c>
@@ -6289,69 +6869,69 @@
         <v>1</v>
       </c>
       <c r="T49" s="25"/>
-      <c r="U49" s="62"/>
-      <c r="V49" s="69"/>
-      <c r="W49" s="59"/>
+      <c r="U49" s="65"/>
+      <c r="V49" s="72"/>
+      <c r="W49" s="62"/>
     </row>
     <row r="50" spans="11:23" ht="16.5" customHeight="1">
-      <c r="K50" s="60"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="O50" s="64"/>
-      <c r="P50" s="64"/>
-      <c r="Q50" s="64"/>
-      <c r="R50" s="64"/>
-      <c r="S50" s="64"/>
-      <c r="T50" s="65"/>
-      <c r="U50" s="62"/>
-      <c r="V50" s="69"/>
-      <c r="W50" s="59"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
+      <c r="T50" s="68"/>
+      <c r="U50" s="65"/>
+      <c r="V50" s="72"/>
+      <c r="W50" s="62"/>
     </row>
     <row r="51" spans="11:23" ht="16.5" customHeight="1">
-      <c r="K51" s="60"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="O51" s="74"/>
-      <c r="P51" s="74"/>
-      <c r="Q51" s="74"/>
-      <c r="R51" s="74"/>
-      <c r="S51" s="74"/>
-      <c r="T51" s="75"/>
-      <c r="U51" s="62"/>
-      <c r="V51" s="69"/>
-      <c r="W51" s="59"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="O51" s="77"/>
+      <c r="P51" s="77"/>
+      <c r="Q51" s="77"/>
+      <c r="R51" s="77"/>
+      <c r="S51" s="77"/>
+      <c r="T51" s="78"/>
+      <c r="U51" s="65"/>
+      <c r="V51" s="72"/>
+      <c r="W51" s="62"/>
     </row>
     <row r="52" spans="11:23">
-      <c r="K52" s="60"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
       <c r="N52" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O52" s="29" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P52" s="29" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q52" s="30" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="T52" s="25"/>
-      <c r="U52" s="62"/>
-      <c r="V52" s="69"/>
-      <c r="W52" s="59"/>
+      <c r="U52" s="65"/>
+      <c r="V52" s="72"/>
+      <c r="W52" s="62"/>
     </row>
     <row r="53" spans="11:23">
-      <c r="K53" s="60"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="65"/>
       <c r="N53" s="7">
         <v>644702220</v>
       </c>
@@ -6365,69 +6945,69 @@
         <v>1</v>
       </c>
       <c r="T53" s="25"/>
-      <c r="U53" s="62"/>
-      <c r="V53" s="69"/>
-      <c r="W53" s="59"/>
+      <c r="U53" s="65"/>
+      <c r="V53" s="72"/>
+      <c r="W53" s="62"/>
     </row>
     <row r="54" spans="11:23" ht="33" customHeight="1">
-      <c r="K54" s="60"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="O54" s="64"/>
-      <c r="P54" s="64"/>
-      <c r="Q54" s="64"/>
-      <c r="R54" s="64"/>
-      <c r="S54" s="64"/>
-      <c r="T54" s="65"/>
-      <c r="U54" s="62"/>
-      <c r="V54" s="69"/>
-      <c r="W54" s="59"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="O54" s="67"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="65"/>
+      <c r="V54" s="72"/>
+      <c r="W54" s="62"/>
     </row>
     <row r="55" spans="11:23" ht="33" customHeight="1">
-      <c r="K55" s="60"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="73" t="s">
-        <v>218</v>
-      </c>
-      <c r="O55" s="74"/>
-      <c r="P55" s="74"/>
-      <c r="Q55" s="74"/>
-      <c r="R55" s="74"/>
-      <c r="S55" s="74"/>
-      <c r="T55" s="75"/>
-      <c r="U55" s="62"/>
-      <c r="V55" s="69"/>
-      <c r="W55" s="59"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="O55" s="77"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="77"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="77"/>
+      <c r="T55" s="78"/>
+      <c r="U55" s="65"/>
+      <c r="V55" s="72"/>
+      <c r="W55" s="62"/>
     </row>
     <row r="56" spans="11:23">
-      <c r="K56" s="60"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
       <c r="N56" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O56" s="29" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P56" s="29" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q56" s="30" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="T56" s="25"/>
-      <c r="U56" s="62"/>
-      <c r="V56" s="69"/>
-      <c r="W56" s="59"/>
+      <c r="U56" s="65"/>
+      <c r="V56" s="72"/>
+      <c r="W56" s="62"/>
     </row>
     <row r="57" spans="11:23">
-      <c r="K57" s="60"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
       <c r="N57" s="7">
         <v>67800350</v>
       </c>
@@ -6441,186 +7021,186 @@
         <v>1</v>
       </c>
       <c r="T57" s="25"/>
-      <c r="U57" s="62"/>
-      <c r="V57" s="69"/>
-      <c r="W57" s="59"/>
+      <c r="U57" s="65"/>
+      <c r="V57" s="72"/>
+      <c r="W57" s="62"/>
     </row>
     <row r="58" spans="11:23" ht="30" customHeight="1">
-      <c r="K58" s="44"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="76" t="s">
+      <c r="K58" s="47"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="O58" s="80"/>
+      <c r="P58" s="80"/>
+      <c r="Q58" s="80"/>
+      <c r="R58" s="80"/>
+      <c r="S58" s="80"/>
+      <c r="T58" s="81"/>
+      <c r="U58" s="51"/>
+      <c r="V58" s="59"/>
+      <c r="W58" s="61"/>
+    </row>
+    <row r="59" spans="11:23">
+      <c r="K59" s="46">
+        <v>11</v>
+      </c>
+      <c r="L59" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="M59" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="N59" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="O59" s="53"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="V59" s="58">
+        <v>4</v>
+      </c>
+      <c r="W59" s="60"/>
+    </row>
+    <row r="60" spans="11:23">
+      <c r="K60" s="47"/>
+      <c r="L60" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="M60" s="51"/>
+      <c r="N60" s="55"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="56"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="56"/>
+      <c r="T60" s="57"/>
+      <c r="U60" s="51"/>
+      <c r="V60" s="59"/>
+      <c r="W60" s="61"/>
+    </row>
+    <row r="61" spans="11:23">
+      <c r="K61" s="46">
+        <v>12</v>
+      </c>
+      <c r="L61" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="O58" s="77"/>
-      <c r="P58" s="77"/>
-      <c r="Q58" s="77"/>
-      <c r="R58" s="77"/>
-      <c r="S58" s="77"/>
-      <c r="T58" s="78"/>
-      <c r="U58" s="48"/>
-      <c r="V58" s="56"/>
-      <c r="W58" s="58"/>
-    </row>
-    <row r="59" spans="11:23">
-      <c r="K59" s="43">
-        <v>11</v>
-      </c>
-      <c r="L59" s="21" t="s">
+      <c r="M61" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="M59" s="47" t="s">
+      <c r="N61" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="V61" s="58">
+        <v>2</v>
+      </c>
+      <c r="W61" s="60"/>
+    </row>
+    <row r="62" spans="11:23">
+      <c r="K62" s="47"/>
+      <c r="L62" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="M62" s="51"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="56"/>
+      <c r="T62" s="57"/>
+      <c r="U62" s="51"/>
+      <c r="V62" s="59"/>
+      <c r="W62" s="61"/>
+    </row>
+    <row r="63" spans="11:23" ht="16.5" customHeight="1">
+      <c r="K63" s="46">
+        <v>13</v>
+      </c>
+      <c r="L63" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="M63" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N63" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="N59" s="49" t="s">
+      <c r="O63" s="74"/>
+      <c r="P63" s="74"/>
+      <c r="Q63" s="74"/>
+      <c r="R63" s="74"/>
+      <c r="S63" s="74"/>
+      <c r="T63" s="75"/>
+      <c r="U63" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="V63" s="58">
+        <v>77</v>
+      </c>
+      <c r="W63" s="60"/>
+    </row>
+    <row r="64" spans="11:23">
+      <c r="K64" s="63"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="65"/>
+      <c r="N64" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="O59" s="50"/>
-      <c r="P59" s="50"/>
-      <c r="Q59" s="50"/>
-      <c r="R59" s="50"/>
-      <c r="S59" s="50"/>
-      <c r="T59" s="51"/>
-      <c r="U59" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="V59" s="55">
-        <v>4</v>
-      </c>
-      <c r="W59" s="57"/>
-    </row>
-    <row r="60" spans="11:23">
-      <c r="K60" s="44"/>
-      <c r="L60" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="M60" s="48"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="53"/>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="53"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="48"/>
-      <c r="V60" s="56"/>
-      <c r="W60" s="58"/>
-    </row>
-    <row r="61" spans="11:23">
-      <c r="K61" s="43">
-        <v>12</v>
-      </c>
-      <c r="L61" s="20" t="s">
+      <c r="O64" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="M61" s="47" t="s">
+      <c r="P64" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q64" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="N61" s="49" t="s">
+      <c r="R64" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="O61" s="50"/>
-      <c r="P61" s="50"/>
-      <c r="Q61" s="50"/>
-      <c r="R61" s="50"/>
-      <c r="S61" s="50"/>
-      <c r="T61" s="51"/>
-      <c r="U61" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="V61" s="55">
-        <v>2</v>
-      </c>
-      <c r="W61" s="57"/>
-    </row>
-    <row r="62" spans="11:23">
-      <c r="K62" s="44"/>
-      <c r="L62" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="M62" s="48"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="53"/>
-      <c r="Q62" s="53"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="53"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="48"/>
-      <c r="V62" s="56"/>
-      <c r="W62" s="58"/>
-    </row>
-    <row r="63" spans="11:23" ht="16.5" customHeight="1">
-      <c r="K63" s="43">
-        <v>13</v>
-      </c>
-      <c r="L63" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="M63" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="N63" s="70" t="s">
+      <c r="S64" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="O63" s="71"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="71"/>
-      <c r="R63" s="71"/>
-      <c r="S63" s="71"/>
-      <c r="T63" s="72"/>
-      <c r="U63" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="V63" s="55">
-        <v>77</v>
-      </c>
-      <c r="W63" s="57"/>
-    </row>
-    <row r="64" spans="11:23">
-      <c r="K64" s="60"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="O64" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="P64" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q64" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="R64" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="S64" s="32" t="s">
-        <v>235</v>
-      </c>
       <c r="T64" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="U64" s="62"/>
-      <c r="V64" s="69"/>
-      <c r="W64" s="59"/>
+        <v>107</v>
+      </c>
+      <c r="U64" s="65"/>
+      <c r="V64" s="72"/>
+      <c r="W64" s="62"/>
     </row>
     <row r="65" spans="11:23">
-      <c r="K65" s="44"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="48"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="51"/>
       <c r="N65" s="33">
         <v>641100180</v>
       </c>
       <c r="O65" s="33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P65" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q65" s="33" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R65" s="33">
         <v>245</v>
@@ -6631,146 +7211,146 @@
       <c r="T65" s="33">
         <v>245</v>
       </c>
-      <c r="U65" s="48"/>
-      <c r="V65" s="56"/>
-      <c r="W65" s="58"/>
+      <c r="U65" s="51"/>
+      <c r="V65" s="59"/>
+      <c r="W65" s="61"/>
     </row>
     <row r="66" spans="11:23" ht="16.5" customHeight="1">
-      <c r="K66" s="43">
+      <c r="K66" s="46">
         <v>14</v>
       </c>
-      <c r="L66" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="M66" s="47" t="s">
+      <c r="L66" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M66" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N66" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="53"/>
+      <c r="R66" s="53"/>
+      <c r="S66" s="53"/>
+      <c r="T66" s="54"/>
+      <c r="U66" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="V66" s="58">
+        <v>462</v>
+      </c>
+      <c r="W66" s="60"/>
+    </row>
+    <row r="67" spans="11:23" ht="33" customHeight="1">
+      <c r="K67" s="63"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="65"/>
+      <c r="N67" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="O67" s="67"/>
+      <c r="P67" s="67"/>
+      <c r="Q67" s="67"/>
+      <c r="R67" s="67"/>
+      <c r="S67" s="67"/>
+      <c r="T67" s="68"/>
+      <c r="U67" s="65"/>
+      <c r="V67" s="72"/>
+      <c r="W67" s="62"/>
+    </row>
+    <row r="68" spans="11:23" ht="30" customHeight="1">
+      <c r="K68" s="47"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="O68" s="70"/>
+      <c r="P68" s="70"/>
+      <c r="Q68" s="70"/>
+      <c r="R68" s="70"/>
+      <c r="S68" s="70"/>
+      <c r="T68" s="71"/>
+      <c r="U68" s="51"/>
+      <c r="V68" s="59"/>
+      <c r="W68" s="61"/>
+    </row>
+    <row r="69" spans="11:23" ht="16.5" customHeight="1">
+      <c r="K69" s="46">
+        <v>15</v>
+      </c>
+      <c r="L69" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="M69" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="N69" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="O69" s="53"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="53"/>
+      <c r="R69" s="53"/>
+      <c r="S69" s="53"/>
+      <c r="T69" s="54"/>
+      <c r="U69" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="V69" s="58">
+        <v>20161220</v>
+      </c>
+      <c r="W69" s="60"/>
+    </row>
+    <row r="70" spans="11:23">
+      <c r="K70" s="47"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="51"/>
+      <c r="N70" s="55"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="57"/>
+      <c r="U70" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="V70" s="59"/>
+      <c r="W70" s="61"/>
+    </row>
+    <row r="71" spans="11:23">
+      <c r="K71" s="40"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="41"/>
+      <c r="S71" s="41"/>
+      <c r="T71" s="41"/>
+      <c r="U71" s="41"/>
+      <c r="V71" s="41"/>
+      <c r="W71" s="42"/>
+    </row>
+    <row r="72" spans="11:23" ht="49.5" customHeight="1">
+      <c r="K72" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="N66" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="O66" s="50"/>
-      <c r="P66" s="50"/>
-      <c r="Q66" s="50"/>
-      <c r="R66" s="50"/>
-      <c r="S66" s="50"/>
-      <c r="T66" s="51"/>
-      <c r="U66" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="V66" s="55">
-        <v>462</v>
-      </c>
-      <c r="W66" s="57"/>
-    </row>
-    <row r="67" spans="11:23" ht="33" customHeight="1">
-      <c r="K67" s="60"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="O67" s="64"/>
-      <c r="P67" s="64"/>
-      <c r="Q67" s="64"/>
-      <c r="R67" s="64"/>
-      <c r="S67" s="64"/>
-      <c r="T67" s="65"/>
-      <c r="U67" s="62"/>
-      <c r="V67" s="69"/>
-      <c r="W67" s="59"/>
-    </row>
-    <row r="68" spans="11:23" ht="30" customHeight="1">
-      <c r="K68" s="44"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="O68" s="67"/>
-      <c r="P68" s="67"/>
-      <c r="Q68" s="67"/>
-      <c r="R68" s="67"/>
-      <c r="S68" s="67"/>
-      <c r="T68" s="68"/>
-      <c r="U68" s="48"/>
-      <c r="V68" s="56"/>
-      <c r="W68" s="58"/>
-    </row>
-    <row r="69" spans="11:23" ht="16.5" customHeight="1">
-      <c r="K69" s="43">
-        <v>15</v>
-      </c>
-      <c r="L69" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="M69" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="N69" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="O69" s="50"/>
-      <c r="P69" s="50"/>
-      <c r="Q69" s="50"/>
-      <c r="R69" s="50"/>
-      <c r="S69" s="50"/>
-      <c r="T69" s="51"/>
-      <c r="U69" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="V69" s="55">
-        <v>20161220</v>
-      </c>
-      <c r="W69" s="57"/>
-    </row>
-    <row r="70" spans="11:23">
-      <c r="K70" s="44"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="52"/>
-      <c r="O70" s="53"/>
-      <c r="P70" s="53"/>
-      <c r="Q70" s="53"/>
-      <c r="R70" s="53"/>
-      <c r="S70" s="53"/>
-      <c r="T70" s="54"/>
-      <c r="U70" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="V70" s="56"/>
-      <c r="W70" s="58"/>
-    </row>
-    <row r="71" spans="11:23">
-      <c r="K71" s="37"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38"/>
-      <c r="T71" s="38"/>
-      <c r="U71" s="38"/>
-      <c r="V71" s="38"/>
-      <c r="W71" s="39"/>
-    </row>
-    <row r="72" spans="11:23" ht="49.5" customHeight="1">
-      <c r="K72" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="41"/>
-      <c r="R72" s="41"/>
-      <c r="S72" s="41"/>
-      <c r="T72" s="41"/>
-      <c r="U72" s="41"/>
-      <c r="V72" s="41"/>
-      <c r="W72" s="42"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="44"/>
+      <c r="V72" s="44"/>
+      <c r="W72" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="112">
@@ -6897,454 +7477,665 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="B1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>272</v>
+        <v>496</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
+        <v>467</v>
+      </c>
+      <c r="D2" s="123">
+        <v>251577144</v>
+      </c>
+      <c r="E2">
         <v>892400</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3">
+        <v>468</v>
+      </c>
+      <c r="D3" s="123">
+        <v>12108600</v>
+      </c>
+      <c r="E3">
         <v>368100</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>469</v>
       </c>
       <c r="D4">
+        <v>9548952</v>
+      </c>
+      <c r="E4">
         <v>240000</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5">
+        <v>9054755.5555555504</v>
+      </c>
+      <c r="E5">
+        <v>237052</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D6">
+        <v>8370928.2628865903</v>
+      </c>
+      <c r="E6">
+        <v>208821</v>
+      </c>
+      <c r="F6">
+        <v>88</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D7">
+        <v>7986075</v>
+      </c>
+      <c r="E7">
+        <v>188759</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D8">
+        <v>7796088</v>
+      </c>
+      <c r="E8">
+        <v>182859.5</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D9">
+        <v>6170771.4285714198</v>
+      </c>
+      <c r="E9">
+        <v>177540</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" t="s">
+        <v>475</v>
+      </c>
+      <c r="D10">
+        <v>5901656.1639344199</v>
+      </c>
+      <c r="E10">
+        <v>174025</v>
+      </c>
+      <c r="F10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D11">
+        <v>5448628.57142857</v>
+      </c>
+      <c r="E11">
+        <v>163226</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D12">
+        <v>5372000</v>
+      </c>
+      <c r="E12">
+        <v>157508</v>
+      </c>
+      <c r="F12">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B13" t="s">
+        <v>497</v>
+      </c>
+      <c r="C13" t="s">
+        <v>478</v>
+      </c>
+      <c r="D13">
+        <v>4832420</v>
+      </c>
+      <c r="E13">
+        <v>153200</v>
+      </c>
+      <c r="F13">
+        <v>994</v>
+      </c>
+      <c r="H13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" t="s">
+        <v>449</v>
+      </c>
+      <c r="C14" t="s">
+        <v>479</v>
+      </c>
+      <c r="D14">
+        <v>4786142.4000000004</v>
+      </c>
+      <c r="E14">
+        <v>151377</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>480</v>
+      </c>
+      <c r="D15">
+        <v>4349910.8136439202</v>
+      </c>
+      <c r="E15">
+        <v>144900</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>237052</v>
-      </c>
-      <c r="E5">
+      <c r="H15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D16">
+        <v>4248794.5931034395</v>
+      </c>
+      <c r="E16">
+        <v>132909</v>
+      </c>
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B6" t="s">
-        <v>332</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>208821</v>
-      </c>
-      <c r="E6">
-        <v>88</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C7" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7">
-        <v>188759</v>
-      </c>
-      <c r="E7">
+      <c r="H16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>453</v>
+      </c>
+      <c r="B17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C17" t="s">
+        <v>482</v>
+      </c>
+      <c r="D17">
+        <v>4228595.2380952304</v>
+      </c>
+      <c r="E17">
+        <v>122254.6</v>
+      </c>
+      <c r="F17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>455</v>
+      </c>
+      <c r="B18" t="s">
+        <v>454</v>
+      </c>
+      <c r="C18" t="s">
+        <v>483</v>
+      </c>
+      <c r="D18">
+        <v>3954079.3846153799</v>
+      </c>
+      <c r="E18">
+        <v>121991</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>456</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D19">
+        <v>3866285.7142857099</v>
+      </c>
+      <c r="E19">
+        <v>113292</v>
+      </c>
+      <c r="F19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>457</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>485</v>
+      </c>
+      <c r="D20">
+        <v>3827039.5294117602</v>
+      </c>
+      <c r="E20">
+        <v>109432</v>
+      </c>
+      <c r="F20">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>458</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>486</v>
+      </c>
+      <c r="D21">
+        <v>3826114.3274853802</v>
+      </c>
+      <c r="E21">
+        <v>107000</v>
+      </c>
+      <c r="F21">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>457</v>
+      </c>
+      <c r="B22" t="s">
+        <v>459</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>3788110.1016949099</v>
+      </c>
+      <c r="E22">
+        <v>102995</v>
+      </c>
+      <c r="F22">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="122" t="s">
+        <v>460</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>487</v>
+      </c>
+      <c r="D23">
+        <v>3529680</v>
+      </c>
+      <c r="E23">
+        <v>101827.916666666</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>488</v>
+      </c>
+      <c r="D24">
+        <v>3437373.3333333302</v>
+      </c>
+      <c r="E24">
+        <v>98350</v>
+      </c>
+      <c r="F24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>461</v>
+      </c>
+      <c r="B25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="C25" t="s">
+        <v>489</v>
+      </c>
+      <c r="D25">
+        <v>2966880</v>
+      </c>
+      <c r="E25">
+        <v>98350</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>490</v>
+      </c>
+      <c r="D26">
+        <v>2966880</v>
+      </c>
+      <c r="E26">
+        <v>96911</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>462</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>491</v>
+      </c>
+      <c r="D27">
+        <v>2944800</v>
+      </c>
+      <c r="E27">
+        <v>96000</v>
+      </c>
+      <c r="F27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>464</v>
+      </c>
+      <c r="B28" t="s">
+        <v>463</v>
+      </c>
+      <c r="C28" t="s">
+        <v>492</v>
+      </c>
+      <c r="D28">
+        <v>2939727.7714285702</v>
+      </c>
+      <c r="E28">
+        <v>93171.904761904705</v>
+      </c>
+      <c r="F28">
         <v>337</v>
       </c>
-      <c r="B8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>182859.5</v>
-      </c>
-      <c r="E8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>341</v>
-      </c>
-      <c r="B9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D9">
-        <v>177540</v>
-      </c>
-      <c r="E9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>344</v>
-      </c>
-      <c r="B10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C10" t="s">
-        <v>342</v>
-      </c>
-      <c r="D10">
-        <v>174025</v>
-      </c>
-      <c r="E10">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>346</v>
-      </c>
-      <c r="B11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>163226</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>157508</v>
-      </c>
-      <c r="E12">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>153200</v>
-      </c>
-      <c r="E13">
-        <v>994</v>
-      </c>
-      <c r="G13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="C14" t="s">
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>465</v>
+      </c>
+      <c r="B29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" t="s">
+        <v>493</v>
+      </c>
+      <c r="D29">
+        <v>2834809.0909090899</v>
+      </c>
+      <c r="E29">
+        <v>88520</v>
+      </c>
+      <c r="F29">
         <v>8</v>
       </c>
-      <c r="D14">
-        <v>151377</v>
-      </c>
-      <c r="E14">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>144900</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>132909</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>122254.6</v>
-      </c>
-      <c r="E17">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>121991</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19">
-        <v>113292</v>
-      </c>
-      <c r="E19">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <v>109432</v>
-      </c>
-      <c r="E20">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21">
-        <v>107000</v>
-      </c>
-      <c r="E21">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>102995</v>
-      </c>
-      <c r="E22">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>101827.916666666</v>
-      </c>
-      <c r="E23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24">
-        <v>98350</v>
-      </c>
-      <c r="E24">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25">
-        <v>98350</v>
-      </c>
-      <c r="E25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26">
-        <v>96911</v>
-      </c>
-      <c r="E26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27">
-        <v>96000</v>
-      </c>
-      <c r="E27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28">
-        <v>93171.904761904705</v>
-      </c>
-      <c r="E28">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29">
-        <v>88520</v>
-      </c>
-      <c r="E29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>466</v>
+      </c>
+      <c r="B30" t="s">
+        <v>264</v>
+      </c>
       <c r="C30" t="s">
-        <v>270</v>
+        <v>494</v>
       </c>
       <c r="D30">
+        <v>2808773.0123456698</v>
+      </c>
+      <c r="E30">
         <v>88173</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>457</v>
+      </c>
+      <c r="B31" t="s">
+        <v>265</v>
+      </c>
       <c r="C31" t="s">
-        <v>271</v>
+        <v>495</v>
       </c>
       <c r="D31">
+        <v>2798718.4694010401</v>
+      </c>
+      <c r="E31">
         <v>82136</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>19</v>
       </c>
     </row>
@@ -7363,12 +8154,13 @@
   </sheetPr>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
@@ -7377,27 +8169,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3087154</v>
@@ -7405,589 +8197,661 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1987769</v>
       </c>
       <c r="G3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1700128</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1418994</v>
       </c>
       <c r="G5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B6" s="114" t="s">
-        <v>356</v>
+        <v>328</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>327</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="E6">
         <v>1389845</v>
       </c>
       <c r="G6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="B7" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="E7">
         <v>1249614</v>
       </c>
       <c r="G7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="B8" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1227964</v>
       </c>
       <c r="G8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" t="s">
+        <v>335</v>
+      </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>334</v>
       </c>
       <c r="E9">
         <v>1224841</v>
       </c>
     </row>
     <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" t="s">
+        <v>338</v>
+      </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>337</v>
       </c>
       <c r="E10">
         <v>970978</v>
       </c>
       <c r="G10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="C11">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="38" customFormat="1">
+      <c r="A11" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="38">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" s="38">
+        <v>927319</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="38" customFormat="1" hidden="1">
+      <c r="C12" s="38">
+        <v>1</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="38">
+        <v>887861</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="38" customFormat="1" hidden="1">
+      <c r="C13" s="38">
+        <v>1</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="38">
+        <v>880524</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="38" customFormat="1" hidden="1">
+      <c r="C14" s="38">
+        <v>1</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="38">
+        <v>815709</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="38" customFormat="1" hidden="1">
+      <c r="C15" s="38">
+        <v>1</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="38">
+        <v>787592</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="38" customFormat="1" hidden="1">
+      <c r="C16" s="38">
+        <v>1</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="38">
+        <v>746484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="38" customFormat="1" hidden="1">
+      <c r="C17" s="38">
+        <v>1</v>
+      </c>
+      <c r="D17" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E11">
-        <v>927319</v>
-      </c>
-      <c r="G11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1">
-      <c r="C12">
+      <c r="E17" s="38">
+        <v>741664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="38" customFormat="1" hidden="1">
+      <c r="C18" s="38">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D18" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E12">
-        <v>887861</v>
-      </c>
-      <c r="G12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1">
-      <c r="C13">
+      <c r="E18" s="38">
+        <v>728644</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="38" customFormat="1" hidden="1">
+      <c r="C19" s="38">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D19" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E13">
-        <v>880524</v>
-      </c>
-      <c r="G13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1">
-      <c r="C14">
+      <c r="E19" s="38">
+        <v>716044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="38" customFormat="1" hidden="1">
+      <c r="C20" s="38">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D20" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E14">
-        <v>815709</v>
-      </c>
-      <c r="G14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1">
-      <c r="C15">
+      <c r="E20" s="38">
+        <v>701845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="38" customFormat="1" hidden="1">
+      <c r="C21" s="38">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D21" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E15">
-        <v>787592</v>
-      </c>
-      <c r="G15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1">
-      <c r="C16">
+      <c r="E21" s="38">
+        <v>662962</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="38" customFormat="1" hidden="1">
+      <c r="C22" s="38">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E16">
-        <v>746484</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1">
-      <c r="C17">
+      <c r="E22" s="38">
+        <v>659425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="38" customFormat="1" hidden="1">
+      <c r="C23" s="38">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D23" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E17">
-        <v>741664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1">
-      <c r="C18">
+      <c r="E23" s="38">
+        <v>638388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="38" customFormat="1" hidden="1">
+      <c r="C24" s="38">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D24" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E18">
-        <v>728644</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1">
-      <c r="C19">
+      <c r="E24" s="38">
+        <v>621764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="38" customFormat="1" hidden="1">
+      <c r="C25" s="38">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D25" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E19">
-        <v>716044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1">
-      <c r="C20">
+      <c r="E25" s="38">
+        <v>598500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="38" customFormat="1" hidden="1">
+      <c r="C26" s="38">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D26" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E20">
-        <v>701845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1">
-      <c r="C21">
+      <c r="E26" s="38">
+        <v>574890</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="38" customFormat="1" hidden="1">
+      <c r="C27" s="38">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D27" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E21">
-        <v>662962</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1">
-      <c r="C22">
+      <c r="E27" s="38">
+        <v>567088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="38" customFormat="1" hidden="1">
+      <c r="C28" s="38">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D28" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E22">
-        <v>659425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1">
-      <c r="C23">
+      <c r="E28" s="38">
+        <v>529366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="38" customFormat="1" hidden="1">
+      <c r="C29" s="38">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D29" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E23">
-        <v>638388</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1">
-      <c r="C24">
+      <c r="E29" s="38">
+        <v>518811</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="38" customFormat="1" hidden="1">
+      <c r="C30" s="38">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D30" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E24">
-        <v>621764</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1">
-      <c r="C25">
+      <c r="E30" s="38">
+        <v>450354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="38" customFormat="1" hidden="1">
+      <c r="C31" s="38">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D31" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E25">
-        <v>598500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1">
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26">
-        <v>574890</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1">
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27">
-        <v>567088</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1">
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28">
-        <v>529366</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1">
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29">
-        <v>518811</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1">
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30">
-        <v>450354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1">
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31">
+      <c r="E31" s="38">
         <v>434957</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="113" customFormat="1">
-      <c r="A32" t="s">
-        <v>348</v>
-      </c>
-      <c r="B32" t="s">
-        <v>347</v>
-      </c>
-      <c r="C32" s="113">
+    <row r="32" spans="1:8" s="38" customFormat="1">
+      <c r="A32" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="C32" s="38">
         <v>2</v>
       </c>
-      <c r="D32" s="113" t="s">
+      <c r="D32" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="E32" s="38">
+        <v>3745663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="38" customFormat="1">
+      <c r="A33" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="C33" s="38">
+        <v>2</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="38">
+        <v>2234054</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="38" customFormat="1">
+      <c r="A34" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" s="38">
+        <v>2</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="38">
+        <v>2203563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="38" customFormat="1">
+      <c r="A35" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="E32" s="113">
-        <v>3745663</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" s="113" customFormat="1">
-      <c r="C33" s="113">
+      <c r="C35" s="38">
         <v>2</v>
       </c>
-      <c r="D33" s="113" t="s">
+      <c r="D35" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="38">
+        <v>2153198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="38" customFormat="1">
+      <c r="A36" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="C36" s="38">
+        <v>2</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="38">
+        <v>2109951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="38" customFormat="1">
+      <c r="A37" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="C37" s="38">
+        <v>2</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="38">
+        <v>1678243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="38" customFormat="1">
+      <c r="A38" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="C38" s="38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="38">
+        <v>1569059</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="38" customFormat="1">
+      <c r="A39" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="38">
+        <v>2</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="38">
+        <v>1464515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="38" customFormat="1">
+      <c r="A40" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="C40" s="38">
+        <v>2</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="E40" s="38">
+        <v>1370918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="38" customFormat="1">
+      <c r="A41" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="C41" s="38">
+        <v>2</v>
+      </c>
+      <c r="D41" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="113">
-        <v>2234054</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" s="113" customFormat="1">
-      <c r="C34" s="113">
-        <v>2</v>
-      </c>
-      <c r="D34" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="113">
-        <v>2203563</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" s="113" customFormat="1">
-      <c r="C35" s="113">
-        <v>2</v>
-      </c>
-      <c r="D35" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="113">
-        <v>2153198</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" s="113" customFormat="1">
-      <c r="C36" s="113">
-        <v>2</v>
-      </c>
-      <c r="D36" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="113">
-        <v>2109951</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" s="113" customFormat="1">
-      <c r="C37" s="113">
-        <v>2</v>
-      </c>
-      <c r="D37" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="113">
-        <v>1678243</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" s="113" customFormat="1">
-      <c r="C38" s="113">
-        <v>2</v>
-      </c>
-      <c r="D38" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="113">
-        <v>1569059</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" s="113" customFormat="1">
-      <c r="C39" s="113">
-        <v>2</v>
-      </c>
-      <c r="D39" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="113">
-        <v>1464515</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" s="113" customFormat="1">
-      <c r="C40" s="113">
-        <v>2</v>
-      </c>
-      <c r="D40" s="113" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="113">
-        <v>1370918</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" s="113" customFormat="1">
-      <c r="C41" s="113">
-        <v>2</v>
-      </c>
-      <c r="D41" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="113">
+      <c r="E41" s="38">
         <v>1314117</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="1:5">
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E42">
         <v>1304853</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="1:5">
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E43">
         <v>1202248</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
+    <row r="44" spans="1:5">
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E44">
         <v>1160738</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
+    <row r="45" spans="1:5">
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E45">
         <v>1150667</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
+    <row r="46" spans="1:5">
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E46">
         <v>1057086</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
+    <row r="47" spans="1:5">
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E47">
         <v>1053805</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="1:5">
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E48">
         <v>1042182</v>
@@ -7998,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E49">
         <v>978204</v>
@@ -8009,7 +8873,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E50">
         <v>952874</v>
@@ -8020,7 +8884,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E51">
         <v>917201</v>
@@ -8031,7 +8895,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E52">
         <v>881668</v>
@@ -8042,7 +8906,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E53">
         <v>784949</v>
@@ -8053,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E54">
         <v>769938</v>
@@ -8064,7 +8928,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E55">
         <v>748061</v>
@@ -8075,7 +8939,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E56">
         <v>716887</v>
@@ -8086,7 +8950,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E57">
         <v>681471</v>
@@ -8097,7 +8961,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E58">
         <v>633534</v>
@@ -8108,7 +8972,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E59">
         <v>626698</v>
@@ -8119,7 +8983,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E60">
         <v>621912</v>
@@ -8130,7 +8994,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E61">
         <v>614479</v>
@@ -8139,6 +9003,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8147,278 +9012,460 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>6832817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25">
+      <c r="A3" s="120" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>4191332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25">
+      <c r="A4" s="121" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="D4">
+        <v>3934182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>3543043</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>3528945</v>
+      </c>
+      <c r="G6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="B2">
-        <v>6832817</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="D7">
+        <v>2906207</v>
+      </c>
+      <c r="G7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="B3">
-        <v>4191332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="D8">
+        <v>2793900</v>
+      </c>
+      <c r="G8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>2714129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="B4">
-        <v>3934182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="D10">
+        <v>2285095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>3543043</v>
-      </c>
-      <c r="E5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="D11">
+        <v>2258779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="116" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>2185377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="B6">
-        <v>3528945</v>
-      </c>
-      <c r="E6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="D13">
+        <v>2077986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25">
+      <c r="A14" s="121" t="s">
+        <v>441</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
-        <v>2906207</v>
-      </c>
-      <c r="E7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="D14">
+        <v>1976447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25">
+      <c r="A15" s="121" t="s">
+        <v>441</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>1930892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="B8">
-        <v>2793900</v>
-      </c>
-      <c r="E8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>2714129</v>
-      </c>
-      <c r="E9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <v>2285095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11">
-        <v>2258779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12">
-        <v>2185377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <v>2077986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14">
-        <v>1976447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15">
-        <v>1930892</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="D16">
+        <v>1829774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="117" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" s="117" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D17">
+        <v>1773130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>355</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="C18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18">
+        <v>1724688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25">
+      <c r="A19" s="121" t="s">
+        <v>441</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19">
+        <v>1694538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25">
+      <c r="A20" s="121" t="s">
+        <v>441</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>1692193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>359</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21">
+        <v>1619046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>442</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D22">
+        <v>1541093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>364</v>
+      </c>
+      <c r="B23" s="117" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23">
+        <v>1391702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="117" t="s">
+        <v>367</v>
+      </c>
+      <c r="B24" s="118" t="s">
+        <v>366</v>
+      </c>
+      <c r="C24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24">
+        <v>1383449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>445</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="B16">
-        <v>1829774</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17">
-        <v>1773130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18">
-        <v>1724688</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19">
-        <v>1694538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20">
-        <v>1692193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>1619046</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22">
-        <v>1541093</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23">
-        <v>1391702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <v>1383449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="D25">
+        <v>1284874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>371</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" t="s">
         <v>46</v>
       </c>
-      <c r="B25">
-        <v>1284874</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26">
+      <c r="D26">
         <v>1283975</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27">
+        <v>371</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="C27" t="s">
+        <v>370</v>
+      </c>
+      <c r="D27">
         <v>1266872</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28">
+        <v>375</v>
+      </c>
+      <c r="B28" t="s">
+        <v>374</v>
+      </c>
+      <c r="C28" t="s">
+        <v>373</v>
+      </c>
+      <c r="D28">
         <v>1162900</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29">
+        <v>442</v>
+      </c>
+      <c r="B29" t="s">
+        <v>377</v>
+      </c>
+      <c r="C29" t="s">
+        <v>376</v>
+      </c>
+      <c r="D29">
         <v>1102582</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30">
+        <v>380</v>
+      </c>
+      <c r="B30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C30" t="s">
+        <v>378</v>
+      </c>
+      <c r="D30">
         <v>1089560</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31">
+        <v>383</v>
+      </c>
+      <c r="B31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C31" t="s">
+        <v>381</v>
+      </c>
+      <c r="D31">
         <v>1046362</v>
       </c>
     </row>
@@ -8434,640 +9481,704 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>289</v>
+      </c>
+      <c r="D1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2">
+        <v>319</v>
+      </c>
+      <c r="C2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
         <v>1256821</v>
       </c>
-      <c r="E2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25">
       <c r="A3">
         <v>2013</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="120" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
         <v>739797</v>
       </c>
-      <c r="E3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25">
       <c r="A4">
         <v>2013</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="121" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
         <v>633557</v>
       </c>
-      <c r="E4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25">
       <c r="A5">
         <v>2013</v>
       </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="121" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
         <v>622928</v>
       </c>
-      <c r="E5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2013</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
+        <v>442</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
         <v>603193</v>
       </c>
-      <c r="E6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2013</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
         <v>567377</v>
       </c>
-      <c r="E7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2013</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
         <v>555670</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>2013</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
         <v>551824</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2013</v>
       </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
         <v>530922</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>2013</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
         <v>475260</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>2014</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>1271273</v>
-      </c>
-      <c r="E12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>2014</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <v>778172</v>
-      </c>
-      <c r="E13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1271273</v>
+      </c>
+      <c r="G13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>2014</v>
       </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14">
-        <v>669740</v>
-      </c>
-      <c r="E14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>778172</v>
+      </c>
+      <c r="G14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>2014</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>667482</v>
-      </c>
-      <c r="E15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>669740</v>
+      </c>
+      <c r="G15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>2014</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16">
-        <v>620841</v>
-      </c>
-      <c r="E16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>667482</v>
+      </c>
+      <c r="G16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>2014</v>
       </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>616350</v>
-      </c>
-      <c r="E17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>620841</v>
+      </c>
+      <c r="G17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>2014</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18">
-        <v>597733</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>616350</v>
+      </c>
+      <c r="G18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>2014</v>
       </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19">
-        <v>591996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>597733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>2014</v>
       </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20">
-        <v>522023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>591996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>2014</v>
       </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21">
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>522023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>2014</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22">
         <v>468352</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>2015</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22">
-        <v>1226500</v>
-      </c>
-      <c r="E22" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>2015</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23">
-        <v>713193</v>
-      </c>
-      <c r="E23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>2015</v>
       </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24">
-        <v>681841</v>
-      </c>
-      <c r="E24" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>1226500</v>
+      </c>
+      <c r="G24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>2015</v>
       </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25">
-        <v>638215</v>
-      </c>
-      <c r="E25" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>713193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>2015</v>
       </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26">
-        <v>622323</v>
-      </c>
-      <c r="E26" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <v>681841</v>
+      </c>
+      <c r="G26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>2015</v>
       </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27">
-        <v>613732</v>
-      </c>
-      <c r="E27" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27">
+        <v>638215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>2015</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>547159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>622323</v>
+      </c>
+      <c r="G28" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>2015</v>
       </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29">
-        <v>496028</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>613732</v>
+      </c>
+      <c r="G29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>2015</v>
       </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>547159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>2015</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>496028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>2015</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32">
         <v>486585</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>2016</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31">
-        <v>1528388</v>
-      </c>
-      <c r="E31" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>2016</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32">
-        <v>962877</v>
-      </c>
-      <c r="E32" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>2016</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33">
-        <v>955849</v>
-      </c>
-      <c r="E33" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>2016</v>
       </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>850369</v>
-      </c>
-      <c r="E34" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>1528388</v>
+      </c>
+      <c r="G34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>2016</v>
       </c>
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35">
-        <v>847520</v>
-      </c>
-      <c r="E35" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35">
+        <v>962877</v>
+      </c>
+      <c r="G35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>2016</v>
       </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36">
-        <v>832671</v>
-      </c>
-      <c r="E36" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <v>955849</v>
+      </c>
+      <c r="G36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>2016</v>
       </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37">
-        <v>646682</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37">
+        <v>850369</v>
+      </c>
+      <c r="G37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>2016</v>
       </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38">
-        <v>619281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <v>847520</v>
+      </c>
+      <c r="G38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>2016</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39">
+        <v>832671</v>
+      </c>
+      <c r="G39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>2016</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <v>646682</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>2016</v>
+      </c>
+      <c r="D41" t="s">
         <v>32</v>
       </c>
-      <c r="C39">
+      <c r="E41">
+        <v>619281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>2016</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42">
         <v>594524</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>2017</v>
-      </c>
-      <c r="B40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40">
-        <v>1549835</v>
-      </c>
-      <c r="E40" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
-        <v>2017</v>
-      </c>
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41">
-        <v>997293</v>
-      </c>
-      <c r="E41" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
-        <v>2017</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42">
-        <v>995453</v>
-      </c>
-      <c r="E42" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
-        <v>2017</v>
-      </c>
-      <c r="B43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43">
-        <v>895673</v>
-      </c>
-      <c r="E43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>2017</v>
       </c>
-      <c r="B44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44">
-        <v>864015</v>
-      </c>
-      <c r="E44" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44">
+        <v>1549835</v>
+      </c>
+      <c r="G44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>2017</v>
       </c>
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45">
-        <v>841824</v>
-      </c>
-      <c r="E45" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45">
+        <v>997293</v>
+      </c>
+      <c r="G45" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>2017</v>
       </c>
-      <c r="B46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46">
-        <v>705770</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46">
+        <v>995453</v>
+      </c>
+      <c r="G46" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>2017</v>
       </c>
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47">
-        <v>619677</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>895673</v>
+      </c>
+      <c r="G47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>2017</v>
       </c>
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48">
-        <v>580075</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48">
+        <v>864015</v>
+      </c>
+      <c r="G48" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>2017</v>
       </c>
-      <c r="B49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49">
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49">
+        <v>841824</v>
+      </c>
+      <c r="G49" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>2017</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50">
+        <v>705770</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>2017</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51">
+        <v>619677</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>2017</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52">
+        <v>580075</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>2017</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53">
         <v>541956</v>
       </c>
     </row>
@@ -9082,278 +10193,460 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="36">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="36">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="36">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="36">
+        <v>116</v>
+      </c>
+      <c r="G5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="36">
+        <v>104.45238095238</v>
+      </c>
+      <c r="G6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D7" s="36">
+        <v>100.408850726552</v>
+      </c>
+      <c r="G7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="36">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D9" s="36">
+        <v>98.679112156401501</v>
+      </c>
+      <c r="G9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" t="s">
+        <v>399</v>
+      </c>
+      <c r="D10" s="36">
+        <v>96.108940473454297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="D11" s="36">
+        <v>92.288925560858104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="36">
+        <v>91.523078685144796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C13" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="36">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="D13" s="36">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="36">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="D14" s="36">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B15" s="119" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" t="s">
         <v>279</v>
       </c>
-      <c r="B4" s="36">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="D15" s="36">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D16" s="36">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>416</v>
+      </c>
+      <c r="B17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17" t="s">
+        <v>415</v>
+      </c>
+      <c r="D17" s="36">
+        <v>88.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>418</v>
+      </c>
+      <c r="B18" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="36">
-        <v>116</v>
-      </c>
-      <c r="E5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="D18" s="36">
+        <v>83.285714285714207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B19" t="s">
+        <v>419</v>
+      </c>
+      <c r="C19" t="s">
         <v>281</v>
       </c>
-      <c r="B6" s="36">
-        <v>104.45238095238</v>
-      </c>
-      <c r="E6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="D19" s="36">
+        <v>81.334519572953695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>402</v>
+      </c>
+      <c r="B20" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="36">
-        <v>100.408850726552</v>
-      </c>
-      <c r="E7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="D20" s="36">
+        <v>81.292579347340194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>422</v>
+      </c>
+      <c r="B21" t="s">
+        <v>421</v>
+      </c>
+      <c r="C21" t="s">
+        <v>420</v>
+      </c>
+      <c r="D21" s="36">
+        <v>81.266666666666595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>424</v>
+      </c>
+      <c r="B22" t="s">
+        <v>425</v>
+      </c>
+      <c r="C22" t="s">
+        <v>423</v>
+      </c>
+      <c r="D22" s="36">
+        <v>81.264388489208599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="118" t="s">
+        <v>428</v>
+      </c>
+      <c r="B23" s="118" t="s">
+        <v>427</v>
+      </c>
+      <c r="C23" t="s">
+        <v>426</v>
+      </c>
+      <c r="D23" s="36">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>430</v>
+      </c>
+      <c r="B24" t="s">
+        <v>429</v>
+      </c>
+      <c r="C24" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="36">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="D24" s="36">
+        <v>80.529411764705799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>428</v>
+      </c>
+      <c r="B25" t="s">
+        <v>427</v>
+      </c>
+      <c r="C25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D25" s="36">
+        <v>80.435897435897402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="36">
-        <v>98.679112156401501</v>
-      </c>
-      <c r="E9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="D26" s="36">
+        <v>79.9166666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>424</v>
+      </c>
+      <c r="B27" t="s">
+        <v>433</v>
+      </c>
+      <c r="C27" t="s">
         <v>285</v>
       </c>
-      <c r="B10" s="36">
-        <v>96.108940473454297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="D27" s="36">
+        <v>79.589341692789901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B28" t="s">
+        <v>434</v>
+      </c>
+      <c r="C28" t="s">
         <v>286</v>
       </c>
-      <c r="B11" s="36">
-        <v>92.288925560858104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="D28" s="36">
+        <v>78.934430478164998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>424</v>
+      </c>
+      <c r="B29" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" t="s">
         <v>287</v>
       </c>
-      <c r="B12" s="36">
-        <v>91.523078685144796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="D29" s="36">
+        <v>78.176470588235205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>424</v>
+      </c>
+      <c r="B30" t="s">
+        <v>437</v>
+      </c>
+      <c r="C30" t="s">
         <v>288</v>
       </c>
-      <c r="B13" s="36">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" s="36">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>290</v>
-      </c>
-      <c r="B15" s="36">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>291</v>
-      </c>
-      <c r="B16" s="36">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17" s="36">
-        <v>88.625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>293</v>
-      </c>
-      <c r="B18" s="36">
-        <v>83.285714285714207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>294</v>
-      </c>
-      <c r="B19" s="36">
-        <v>81.334519572953695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>295</v>
-      </c>
-      <c r="B20" s="36">
-        <v>81.292579347340194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>296</v>
-      </c>
-      <c r="B21" s="36">
-        <v>81.266666666666595</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>297</v>
-      </c>
-      <c r="B22" s="36">
-        <v>81.264388489208599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>298</v>
-      </c>
-      <c r="B23" s="36">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>299</v>
-      </c>
-      <c r="B24" s="36">
-        <v>80.529411764705799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>300</v>
-      </c>
-      <c r="B25" s="36">
-        <v>80.435897435897402</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>301</v>
-      </c>
-      <c r="B26" s="36">
-        <v>79.9166666666666</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>302</v>
-      </c>
-      <c r="B27" s="36">
-        <v>79.589341692789901</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>303</v>
-      </c>
-      <c r="B28" s="36">
-        <v>78.934430478164998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B29" s="36">
-        <v>78.176470588235205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>305</v>
-      </c>
-      <c r="B30" s="36">
+      <c r="D30" s="36">
         <v>76.697674418604606</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>306</v>
-      </c>
-      <c r="B31" s="36">
+        <v>384</v>
+      </c>
+      <c r="B31" t="s">
+        <v>439</v>
+      </c>
+      <c r="C31" t="s">
+        <v>438</v>
+      </c>
+      <c r="D31" s="36">
         <v>75</v>
       </c>
     </row>
